--- a/LTE Structures/37020/matrix_q050.xlsx
+++ b/LTE Structures/37020/matrix_q050.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\LTE Structures\37020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDFF06D-46EA-4590-8ECC-5AA2BC5F7C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60D3A076-EA07-4D0C-9AED-345397181D84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="3315" windowWidth="26775" windowHeight="17190" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
+    <workbookView xWindow="11415" yWindow="2880" windowWidth="26775" windowHeight="17190" xr2:uid="{094704D8-7B6F-49E9-BF99-0537CC78131F}"/>
   </bookViews>
   <sheets>
     <sheet name="matrix" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="163">
   <si>
     <t>Matrix Name</t>
   </si>
@@ -500,6 +500,15 @@
   </si>
   <si>
     <t>Level 11</t>
+  </si>
+  <si>
+    <t>Tower 1</t>
+  </si>
+  <si>
+    <t>Tower 2</t>
+  </si>
+  <si>
+    <t>Tower 3</t>
   </si>
 </sst>
 </file>
@@ -1360,9 +1369,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A16EF041-A184-4873-A38F-D767E07AD295}">
-  <dimension ref="A1:F99"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1412,53 +1423,62 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
       <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>9</v>
+      <c r="C6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F6" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>10</v>
+        <v>162</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
+      <c r="B8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
         <v>13</v>
@@ -1466,10 +1486,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
         <v>13</v>
@@ -1477,53 +1497,53 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>17</v>
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E14" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" t="s">
         <v>24</v>
@@ -1531,10 +1551,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E18" t="s">
         <v>24</v>
@@ -1542,10 +1562,10 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
         <v>24</v>
@@ -1553,10 +1573,10 @@
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
         <v>24</v>
@@ -1564,10 +1584,10 @@
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E21" t="s">
         <v>24</v>
@@ -1575,10 +1595,10 @@
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E22" t="s">
         <v>24</v>
@@ -1586,10 +1606,10 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E23" t="s">
         <v>24</v>
@@ -1597,29 +1617,29 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E26" t="s">
         <v>34</v>
@@ -1627,10 +1647,10 @@
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" t="s">
         <v>34</v>
@@ -1638,10 +1658,10 @@
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
         <v>34</v>
@@ -1649,10 +1669,10 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" t="s">
         <v>34</v>
@@ -1660,10 +1680,10 @@
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" t="s">
         <v>34</v>
@@ -1671,77 +1691,77 @@
     </row>
     <row r="31" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
       </c>
       <c r="E31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>43</v>
+        <v>40</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E33" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E34" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E35" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E37" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E38" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E39" t="s">
         <v>54</v>
@@ -1749,10 +1769,10 @@
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E40" t="s">
         <v>54</v>
@@ -1760,10 +1780,10 @@
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E41" t="s">
         <v>54</v>
@@ -1771,51 +1791,51 @@
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>57</v>
       </c>
       <c r="E42" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D43" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>62</v>
-      </c>
-      <c r="D44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
         <v>64</v>
@@ -1823,10 +1843,10 @@
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D47" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E47" t="s">
         <v>64</v>
@@ -1834,32 +1854,32 @@
     </row>
     <row r="48" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D48" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E48" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E49" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D50" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E50" t="s">
         <v>73</v>
@@ -1867,10 +1887,10 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E51" t="s">
         <v>73</v>
@@ -1878,10 +1898,10 @@
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D52" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E52" t="s">
         <v>73</v>
@@ -1889,10 +1909,10 @@
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E53" t="s">
         <v>73</v>
@@ -1900,10 +1920,10 @@
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D54" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E54" t="s">
         <v>73</v>
@@ -1911,32 +1931,32 @@
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D55" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E55" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D56" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D57" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E57" t="s">
         <v>88</v>
@@ -1944,10 +1964,10 @@
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D58" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
         <v>88</v>
@@ -1955,10 +1975,10 @@
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
         <v>88</v>
@@ -1966,10 +1986,10 @@
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E60" t="s">
         <v>88</v>
@@ -1977,37 +1997,37 @@
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="D61" t="s">
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>103</v>
-      </c>
-      <c r="D63" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E63" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>104</v>
-      </c>
-      <c r="D64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
         <v>102</v>
@@ -2015,10 +2035,10 @@
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E65" t="s">
         <v>102</v>
@@ -2026,10 +2046,10 @@
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
         <v>102</v>
@@ -2037,10 +2057,10 @@
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
         <v>102</v>
@@ -2048,29 +2068,29 @@
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="D68" t="s">
+        <v>106</v>
       </c>
       <c r="E68" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D69" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
-        <v>111</v>
-      </c>
-      <c r="D70" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E70" t="s">
         <v>109</v>
@@ -2078,10 +2098,10 @@
     </row>
     <row r="71" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E71" t="s">
         <v>109</v>
@@ -2089,10 +2109,10 @@
     </row>
     <row r="72" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E72" t="s">
         <v>109</v>
@@ -2100,10 +2120,10 @@
     </row>
     <row r="73" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
         <v>109</v>
@@ -2111,148 +2131,148 @@
     </row>
     <row r="74" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E74" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>118</v>
+        <v>114</v>
+      </c>
+      <c r="D75" t="s">
+        <v>114</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="D76" t="s">
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="77" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>122</v>
-      </c>
-      <c r="D77" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>125</v>
+        <v>122</v>
+      </c>
+      <c r="D79" t="s">
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C80" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E80" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="83" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C83" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E83" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="84" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C84" t="s">
-        <v>135</v>
-      </c>
-      <c r="D84" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E84" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="85" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D86" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="87" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C87" t="s">
-        <v>140</v>
-      </c>
-      <c r="D87" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="E87" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="88" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D88" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E88" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D89" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E89" t="s">
         <v>141</v>
@@ -2260,10 +2280,10 @@
     </row>
     <row r="90" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D90" t="s">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="E90" t="s">
         <v>141</v>
@@ -2271,10 +2291,10 @@
     </row>
     <row r="91" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D91" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E91" t="s">
         <v>141</v>
@@ -2282,10 +2302,10 @@
     </row>
     <row r="92" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D92" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E92" t="s">
         <v>141</v>
@@ -2293,10 +2313,10 @@
     </row>
     <row r="93" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>83</v>
       </c>
       <c r="E93" t="s">
         <v>141</v>
@@ -2304,45 +2324,45 @@
     </row>
     <row r="94" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>149</v>
+        <v>147</v>
+      </c>
+      <c r="D94" t="s">
+        <v>85</v>
       </c>
       <c r="E94" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="95" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="D95" t="s">
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
     </row>
     <row r="96" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C96" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E96" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="97" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C97" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C98" t="s">
-        <v>156</v>
-      </c>
-      <c r="D98" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E98" t="s">
         <v>154</v>
@@ -2350,12 +2370,34 @@
     </row>
     <row r="99" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C99" t="s">
+        <v>155</v>
+      </c>
+      <c r="D99" t="s">
+        <v>155</v>
+      </c>
+      <c r="E99" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C100" t="s">
+        <v>156</v>
+      </c>
+      <c r="D100" t="s">
+        <v>156</v>
+      </c>
+      <c r="E100" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C101" t="s">
         <v>157</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D101" t="s">
         <v>157</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E101" t="s">
         <v>154</v>
       </c>
     </row>
